--- a/split-resnet50/runtime.xlsx
+++ b/split-resnet50/runtime.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mejhg\OneDrive\Desktop\vscode\hetde\split-resnet50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74704B0-78CB-4B33-B1E5-40E9B8A7433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ACE4AB-F2B3-459F-A62A-EA886B1F5B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDEB8DA6-1FC5-479B-B8DF-57B4320A394B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FDEB8DA6-1FC5-479B-B8DF-57B4320A394B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$26:$B$30</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$27:$B$30</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$C$26:$C$30</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$27:$C$30</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$B$26:$B$30</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$B$27:$B$30</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$C$26:$C$30</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$C$27:$C$30</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$26:$C$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>average</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +120,26 @@
     <t>convolution 파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>whole model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc에서 prune 90% 했을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc에서 prune 100% 했을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc에서 prune 아무것도 안 했을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -169,9 +184,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,10 +1996,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.4</cx:f>
+        <cx:f>_xlchart.v2.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.6</cx:f>
+        <cx:f>_xlchart.v2.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4935,8 +4953,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3777910" y="5379274"/>
-              <a:ext cx="3899720" cy="2317782"/>
+              <a:off x="3795279" y="5029650"/>
+              <a:ext cx="3915168" cy="2172106"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5883,6 +5901,342 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
             <a:t>?</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FABEEDB-059B-8C3A-DC28-3489BB667D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="3362325"/>
+          <a:ext cx="7467600" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>1. pruning 100%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>와 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>100%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>가 아닌 것 사이의 속도 차이가 극심</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>=&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>아예 안 보내는건 엄청 빠른데 중간 부분만 골라서 보내는건 꽤 느린 것 같음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>보낼 부분만 담긴 연속적인 바이트 배열이 필요하니까 분명 복사가 일어날거고 이게 메인 오버헤드일 가능성이 큼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>2. pruning </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>아예 안 한게 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>90% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>한 것보다 더 빠르게 나옴</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>=&gt; pruning 90% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>버전이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>pruning </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>없는 버전에 비해  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>network overhead </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>수치는 줄었지만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>whole model </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>시간이 증가한 것은 워커 노드 쪽에서 계산하기 전에 텐서의 빈 공간을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>으로 채워넣는 과정이 추가되어서 그런 것으로 추측함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>실행 시간 측정할 때 요청 수신 직후부터는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>computation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>으로 취급하니까 입력 데이터를 원래 사이즈로 복원하는 과정도 여기에 들어감ㅇㅇ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>표에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>computation </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>수치도 기록했으면 좋았을텐데 필요 없을 줄 알고 그걸 빼먹었음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>요약</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>pruning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>하면 전송량 감소하는 것도 맞고 실제로 전송에 걸리는 시간도 미세하게 감소하지만</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>다음과 같은 작업이 추가로 필요해서 결국 빨라지지는 않음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>중앙 서버</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>입력 데이터 중에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>unpruned </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>채널만 골라서 전송 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>메모리 할당 및 복사가 일어날 개연성이 무척 높음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>워커 노드 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>수신한 입력 데이터는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>unpruned </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>채널만 있으니 나머지 채널 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>으로 채워넣어 기존 입력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>shape</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>로 돌려놓기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6210,23 +6564,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F65D93-1273-4791-80D8-0F238ACB7A58}">
   <dimension ref="B1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="78" workbookViewId="0">
+    <sheetView topLeftCell="G18" zoomScale="78" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -6252,7 +6606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -6286,7 +6640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6316,7 +6670,7 @@
         <v>9.9706000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -6346,7 +6700,7 @@
         <v>0.30342200000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -6376,7 +6730,7 @@
         <v>0.64491600000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T6">
         <v>4</v>
       </c>
@@ -6384,7 +6738,7 @@
         <v>0.71432399999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -6398,7 +6752,7 @@
         <v>1.4188339999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -6412,7 +6766,7 @@
         <v>1.6344559999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -6426,7 +6780,7 @@
         <v>1.720672</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -6440,7 +6794,7 @@
         <v>1.7644139999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T11">
         <v>9</v>
       </c>
@@ -6448,7 +6802,7 @@
         <v>2.4776790000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T12">
         <v>10</v>
       </c>
@@ -6456,7 +6810,7 @@
         <v>2.6188370000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T13">
         <v>11</v>
       </c>
@@ -6464,7 +6818,7 @@
         <v>2.7180520000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T14">
         <v>12</v>
       </c>
@@ -6472,7 +6826,7 @@
         <v>2.7958630000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T15">
         <v>13</v>
       </c>
@@ -6480,7 +6834,7 @@
         <v>2.908903</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T16">
         <v>14</v>
       </c>
@@ -6488,7 +6842,7 @@
         <v>3.0179170000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -6517,7 +6871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -6549,7 +6903,7 @@
         <v>2.4083966626829154</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -6577,7 +6931,7 @@
         <v>0.34586532910664797</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -6605,7 +6959,7 @@
         <v>4.380683898925776E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -6633,7 +6987,7 @@
         <v>0.66843175888061457</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -6642,7 +6996,7 @@
         <v>0.66843175888061457</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -6650,7 +7004,7 @@
         <v>0.56518409999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -6658,7 +7012,7 @@
         <v>0.50287389999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -6666,13 +7020,203 @@
         <v>0.48479749999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
         <v>0.48067330000000003</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEC4F7D-E2ED-44DA-8685-24B9A43FCACA}">
+  <dimension ref="C6:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>0.86781940000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.58698839999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.86721539999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.52155790000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.67052279999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.32862609999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0.86559779999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.57305969999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.87797170000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.53927709999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.63612089999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.30470710000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0.84201380000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.55580390000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.88762459999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.53346870000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.66613370000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.32912669999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0.82799509999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.538991</v>
+      </c>
+      <c r="F12">
+        <v>0.85656790000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.51393849999999996</v>
+      </c>
+      <c r="H12">
+        <v>0.67788459999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.33770489999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0.83914789999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.55317519999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.85463509999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.51196229999999998</v>
+      </c>
+      <c r="H13">
+        <v>0.67352369999999995</v>
+      </c>
+      <c r="I13">
+        <v>0.3375611</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:E14" si="0">AVERAGE(D9:D13)</f>
+        <v>0.8485147999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.56160364000000007</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(F9:F13)</f>
+        <v>0.86880293999999991</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(G9:G13)</f>
+        <v>0.52404089999999992</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:I14" si="1">AVERAGE(H9:H13)</f>
+        <v>0.66483714000000005</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.32754518000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/split-resnet50/runtime.xlsx
+++ b/split-resnet50/runtime.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mejhg\OneDrive\Desktop\vscode\hetde\split-resnet50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ACE4AB-F2B3-459F-A62A-EA886B1F5B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703D092-F851-4C1C-B71B-822F1E5B59E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FDEB8DA6-1FC5-479B-B8DF-57B4320A394B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FDEB8DA6-1FC5-479B-B8DF-57B4320A394B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$26:$B$30</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>average</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +139,42 @@
   </si>
   <si>
     <t>rpc에서 prune 아무것도 안 했을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x100x256x256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pruning + size restoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pruning + size restoration + caching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prune ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x100x32x32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x100x512x512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1991,6 +2028,3163 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>1x100x256x256</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$16:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$16:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6643459796905499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$16:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$16:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1.0627710819244299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.36028003692626E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.71691179275512E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning + size restoration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$16:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$16:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1.99333691596984E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5151140689849799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.20395994186401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning + size restoration + caching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$16:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$16:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1.6551837921142499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1468925476074201E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7367486953735304E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B5C-4BDA-BDA2-D9E932EF2FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1700371328"/>
+        <c:axId val="1700370368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1700371328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>prune</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700370368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1700370368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>평균 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>echo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+                  <a:t>시간 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t>(S/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+                  <a:t>요청</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700371328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>1x100x32x32</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$23:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$23:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.39957237243652E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8198-4400-A86B-750C9C58A7D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8198-4400-A86B-750C9C58A7D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$23:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$23:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>4.1600751876831E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3216371536254801E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29761457443237E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8198-4400-A86B-750C9C58A7D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning + size restoration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8198-4400-A86B-750C9C58A7D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$23:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$23:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>6.1578273773193297E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4225683212280199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.70415782928466E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8198-4400-A86B-750C9C58A7D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning + size restoration + caching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8198-4400-A86B-750C9C58A7D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$23:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$23:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5.2509546279907197E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8235297203063901E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9591307640075598E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8198-4400-A86B-750C9C58A7D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2779120"/>
+        <c:axId val="2781040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2779120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>prune</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2781040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2781040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>평균 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>echo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+                  <a:t>시간</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t>(s/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+                  <a:t>요청</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2779120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>1x100x512x512</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$9:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3101272583007799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D22C-4E2F-8D67-52E56AB4CE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D22C-4E2F-8D67-52E56AB4CE4E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$9:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5.4974303245544399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.09537196159362E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9346618652343701E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D22C-4E2F-8D67-52E56AB4CE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning + size restoration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D22C-4E2F-8D67-52E56AB4CE4E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$9:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>9.36654949188232E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.04453063011169E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3540301322937002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D22C-4E2F-8D67-52E56AB4CE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pruning + size restoration + caching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D22C-4E2F-8D67-52E56AB4CE4E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$9:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>7.95777678489685E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7204062938690103E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1651430130004802E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D22C-4E2F-8D67-52E56AB4CE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="14058528"/>
+        <c:axId val="14058048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="14058528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>prune</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14058048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="14058048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>평균 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>echo </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>시간 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>(s/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>요청</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14058528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -2259,6 +5453,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4777,6 +8091,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4953,8 +9815,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3795279" y="5029650"/>
-              <a:ext cx="3915168" cy="2172106"/>
+              <a:off x="3774324" y="5303970"/>
+              <a:ext cx="3901833" cy="2286406"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6235,6 +11097,1170 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
             <a:t>로 돌려놓기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254949</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2104816</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>120953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B908398-114B-FB02-4837-B0D04CDCADB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1585425" y="6114667"/>
+          <a:ext cx="7462058" cy="3368000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>실험 개요</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>pytorch RPC </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>프레임워크를 사용해 마스터와 워커 사이의 텐서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>echo </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>요청이 얼마나 걸리는지 측정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>여러 데이터 크기와 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>prune</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t> ratio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>에 대해 실행 시간이 어떤 경향을 보이는지 분석하는 것이 목표</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>변인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>pruning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>입력 채널을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>prune ratio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>만큼 제거한 것</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>, echo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>로 반환하는 데이터 또한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>prune</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>된 데이터와 동일한 크기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>size restoration: pruned input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>만 받은 수신 측에서 제거된 채널을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>으로 채운 원본 크기의 입력 데이터를 만들어내는 것</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>caching: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>미리 원본 입력 크기의 영행렬을 만들어두고 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>pruned input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>의 값을 적절한 위치에 대입하는 것 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>메모리 할당 최적화</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>측정 환경</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>단일 디바이스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>노트북</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에서</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>도커 컨테이너 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x 2 (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>마스터</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>워커</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>실행</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>모든 측정값은 하나의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>echo </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>요청에 걸린 평균 시간을 초 단위로 표시한 것 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>(100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>회 측정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433504</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>216292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>272141</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487770CE-B50A-2FFC-2652-65E7B4D4B772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>410811</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277835</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>77311</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D69795-D034-8F18-E776-378B554E144B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>477728</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>77607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>302929</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43269</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A804A9-48AD-77F5-4D75-2AF3A9E42F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>374952</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>411239</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DE873D-BADC-65C0-727F-7F424FF24541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16473714" y="1088571"/>
+          <a:ext cx="6023430" cy="4753429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>결과 해석</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>입력 데이터가 작은 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>90%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>나 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pruning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>해도 오히려 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>base</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>보다 느려짐 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>작은 모델에서는 차라리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pruning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>을 하지 않는 것이 더 좋음</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>데이터 사이즈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>가로</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>세로</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>가 클수록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>pruning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>에 의한 실행 시간 단축이 더욱 커지는 경향</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>데이터가 클수록 실행 시간이 우하향 직선에 가까까워진다는 것은 전송해야할 데이터 크기에 가장 큰 영향을 받는다는 뜻</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>반대로 데이터가 작을 때 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>90% pruning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>과 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100% pruning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>의 속도 차이가 큰 것은 나머지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>데이터를 전송하기 위한 전처리 오버헤드가 전체 과정에서 상당히 큰 비중을 차지한다는 뜻</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>따라서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>크고 무거운 모델</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일수록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pruning </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>전략이 더욱 효과적일 것으로 기대됨</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>3. pruning (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>주황색</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>) VS pruning + size restoration (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>초록색</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> 사이의 속도 차이가 매우 큼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>전송할 때 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>unpruned channel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>만 골라서 보내는 것도 문제지만</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>받는 쪽에서 빈 공간에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>을 채워넣어 원본 입력 사이즈로 복원하는 것이</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>특히나 오버헤드 발생에 크게 관여하는 무거운 작업임을 암시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>약간의 최적화를 곁들인 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>pruning + size restoration + chaching (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>파란색</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>이 둘 사이 중간 즈음에 위치한다는 것은</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>송수신 오버헤드 최적화가 절실하다는 뜻</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" kern="1200" baseline="0"/>
         </a:p>
@@ -6568,19 +12594,19 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -6606,7 +12632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -6640,7 +12666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6670,7 +12696,7 @@
         <v>9.9706000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -6700,7 +12726,7 @@
         <v>0.30342200000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -6730,7 +12756,7 @@
         <v>0.64491600000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
       <c r="T6">
         <v>4</v>
       </c>
@@ -6738,7 +12764,7 @@
         <v>0.71432399999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -6752,7 +12778,7 @@
         <v>1.4188339999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -6766,7 +12792,7 @@
         <v>1.6344559999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -6780,7 +12806,7 @@
         <v>1.720672</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -6794,7 +12820,7 @@
         <v>1.7644139999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
       <c r="T11">
         <v>9</v>
       </c>
@@ -6802,7 +12828,7 @@
         <v>2.4776790000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
       <c r="T12">
         <v>10</v>
       </c>
@@ -6810,7 +12836,7 @@
         <v>2.6188370000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
       <c r="T13">
         <v>11</v>
       </c>
@@ -6818,7 +12844,7 @@
         <v>2.7180520000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
       <c r="T14">
         <v>12</v>
       </c>
@@ -6826,7 +12852,7 @@
         <v>2.7958630000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
       <c r="T15">
         <v>13</v>
       </c>
@@ -6834,7 +12860,7 @@
         <v>2.908903</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
       <c r="T16">
         <v>14</v>
       </c>
@@ -6842,7 +12868,7 @@
         <v>3.0179170000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -6871,7 +12897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -6903,7 +12929,7 @@
         <v>2.4083966626829154</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -6931,7 +12957,7 @@
         <v>0.34586532910664797</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -6959,7 +12985,7 @@
         <v>4.380683898925776E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -6987,7 +13013,7 @@
         <v>0.66843175888061457</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -6996,7 +13022,7 @@
         <v>0.66843175888061457</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -7004,7 +13030,7 @@
         <v>0.56518409999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -7012,7 +13038,7 @@
         <v>0.50287389999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -7020,7 +13046,7 @@
         <v>0.48479749999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -7039,23 +13065,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEC4F7D-E2ED-44DA-8685-24B9A43FCACA}">
   <dimension ref="C6:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>24</v>
       </c>
@@ -7066,7 +13092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>20</v>
       </c>
@@ -7086,7 +13112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D9">
         <v>0.86781940000000002</v>
       </c>
@@ -7106,7 +13132,7 @@
         <v>0.32862609999999998</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D10">
         <v>0.86559779999999997</v>
       </c>
@@ -7126,7 +13152,7 @@
         <v>0.30470710000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D11">
         <v>0.84201380000000003</v>
       </c>
@@ -7146,7 +13172,7 @@
         <v>0.32912669999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D12">
         <v>0.82799509999999998</v>
       </c>
@@ -7166,7 +13192,7 @@
         <v>0.33770489999999997</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D13">
         <v>0.83914789999999995</v>
       </c>
@@ -7186,7 +13212,7 @@
         <v>0.3375611</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -7215,7 +13241,7 @@
         <v>0.32754518000000005</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E18" s="1"/>
     </row>
   </sheetData>
@@ -7223,4 +13249,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF76CAD-2453-4182-90D1-635837A33F02}">
+  <dimension ref="C8:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="63" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8.3101272583007799E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>5.4974303245544399E-2</v>
+      </c>
+      <c r="G10">
+        <v>9.36654949188232E-2</v>
+      </c>
+      <c r="H10">
+        <v>7.95777678489685E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>1.09537196159362E-2</v>
+      </c>
+      <c r="G11">
+        <v>6.04453063011169E-2</v>
+      </c>
+      <c r="H11">
+        <v>4.7204062938690103E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.9346618652343701E-3</v>
+      </c>
+      <c r="G12">
+        <v>5.3540301322937002E-2</v>
+      </c>
+      <c r="H12">
+        <v>4.1651430130004802E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1.6643459796905499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>1.0627710819244299E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.99333691596984E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.6551837921142499E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <v>4.36028003692626E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.5151140689849799E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.1468925476074201E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.71691179275512E-3</v>
+      </c>
+      <c r="G19">
+        <v>1.20395994186401E-2</v>
+      </c>
+      <c r="H19">
+        <v>8.7367486953735304E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3.39957237243652E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>4.1600751876831E-3</v>
+      </c>
+      <c r="G24">
+        <v>6.1578273773193297E-3</v>
+      </c>
+      <c r="H24">
+        <v>5.2509546279907197E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <v>0.9</v>
+      </c>
+      <c r="F25">
+        <v>4.3216371536254801E-3</v>
+      </c>
+      <c r="G25">
+        <v>5.4225683212280199E-3</v>
+      </c>
+      <c r="H25">
+        <v>4.8235297203063901E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1.29761457443237E-3</v>
+      </c>
+      <c r="G26">
+        <v>2.70415782928466E-3</v>
+      </c>
+      <c r="H26">
+        <v>1.9591307640075598E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>